--- a/static/data/products_complete.xlsx
+++ b/static/data/products_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web_proyects\imprenta_gallito\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D1E81-62BF-4169-980D-F22A2EE76C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C08B1-94E3-43B5-B672-07BA94703CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1027">
   <si>
     <t>product_slug</t>
   </si>
@@ -3081,484 +3081,37 @@
     <t>negro:333333|turquoise-frost:67aece|blanco:e5e6e8|rojo:b63a44|morado:52457d|fuchsia-frost:e25982|azul-marino:545a68|azul-real:5760aa</t>
   </si>
   <si>
-    <t>stationery-wedding-invitations_0002</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0003</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0004</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0005</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0006</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0007</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0008</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0009</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0010</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0011</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0012</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0013</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0014</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0015</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0016</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0017</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0018</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0019</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0020</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0021</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0022</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0023</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0024</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0025</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0026</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0027</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0028</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0029</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0030</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0031</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0032</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0033</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0034</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0035</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0036</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0037</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0038</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0039</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invitations_0040</t>
-  </si>
-  <si>
-    <t>stationery-wedding-invit</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0002 0002</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0003 0003</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0004 0004</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0005 0005</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0006 0006</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0007 0007</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0008 0008</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0009 0009</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0010 0010</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0011 0011</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0012 0012</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0013 0013</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0014 0014</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0015 0015</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0016 0016</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0017 0017</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0018 0018</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0019 0019</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0020 0020</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0021 0021</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0022 0022</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0023 0023</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0024 0024</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0025 0025</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0026 0026</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0027 0027</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0028 0028</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0029 0029</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0030 0030</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0031 0031</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0032 0032</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0033 0033</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0034 0034</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0035 0035</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0036 0036</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0037 0037</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0038 0038</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0039 0039</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invitations 0040 0040</t>
-  </si>
-  <si>
-    <t>Stationery Wedding Invit nvit</t>
-  </si>
-  <si>
-    <t>SWD-002</t>
-  </si>
-  <si>
-    <t>SWD-003</t>
-  </si>
-  <si>
-    <t>SWD-004</t>
-  </si>
-  <si>
-    <t>SWD-005</t>
-  </si>
-  <si>
-    <t>SWD-006</t>
-  </si>
-  <si>
-    <t>SWD-007</t>
-  </si>
-  <si>
-    <t>SWD-008</t>
-  </si>
-  <si>
-    <t>SWD-009</t>
-  </si>
-  <si>
-    <t>SWD-010</t>
-  </si>
-  <si>
-    <t>SWD-011</t>
-  </si>
-  <si>
-    <t>SWD-012</t>
-  </si>
-  <si>
-    <t>SWD-013</t>
-  </si>
-  <si>
-    <t>SWD-014</t>
-  </si>
-  <si>
-    <t>SWD-015</t>
-  </si>
-  <si>
-    <t>SWD-016</t>
-  </si>
-  <si>
-    <t>SWD-017</t>
-  </si>
-  <si>
-    <t>SWD-018</t>
-  </si>
-  <si>
-    <t>SWD-019</t>
-  </si>
-  <si>
-    <t>SWD-020</t>
-  </si>
-  <si>
-    <t>SWD-021</t>
-  </si>
-  <si>
-    <t>SWD-022</t>
-  </si>
-  <si>
-    <t>SWD-023</t>
-  </si>
-  <si>
-    <t>SWD-024</t>
-  </si>
-  <si>
-    <t>SWD-025</t>
-  </si>
-  <si>
-    <t>SWD-026</t>
-  </si>
-  <si>
-    <t>SWD-027</t>
-  </si>
-  <si>
-    <t>SWD-028</t>
-  </si>
-  <si>
-    <t>SWD-029</t>
-  </si>
-  <si>
-    <t>SWD-030</t>
-  </si>
-  <si>
-    <t>SWD-031</t>
-  </si>
-  <si>
-    <t>SWD-032</t>
-  </si>
-  <si>
-    <t>SWD-033</t>
-  </si>
-  <si>
-    <t>SWD-034</t>
-  </si>
-  <si>
-    <t>SWD-035</t>
-  </si>
-  <si>
-    <t>SWD-036</t>
-  </si>
-  <si>
-    <t>SWD-037</t>
-  </si>
-  <si>
-    <t>SWD-038</t>
-  </si>
-  <si>
-    <t>SWD-039</t>
-  </si>
-  <si>
-    <t>SWD-040</t>
-  </si>
-  <si>
-    <t>SWD-041</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0002.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0003.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0004.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0005.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0006.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0007.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0008.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0009.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0010.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0011.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0012.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0013.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0014.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0015.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0016.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0017.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0018.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0019.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0020.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0021.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0022.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0023.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0024.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0025.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0026.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0027.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0028.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0029.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0030.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0031.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0032.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0033.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0034.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0035.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0036.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0037.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0038.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0039.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invitations_0040.jpg</t>
-  </si>
-  <si>
-    <t>/media/product_images/stationery-wedding-invitationsstationery-wedding-invit.jpg</t>
+    <t>bodas</t>
+  </si>
+  <si>
+    <t>guarda-la-fecha</t>
+  </si>
+  <si>
+    <t>servilletas</t>
+  </si>
+  <si>
+    <t>Guarda la fecha</t>
+  </si>
+  <si>
+    <t>Servilletas</t>
+  </si>
+  <si>
+    <t>GLF-001</t>
+  </si>
+  <si>
+    <t>S-001</t>
+  </si>
+  <si>
+    <t>Tarjetas para recordar la fecha de la boda</t>
+  </si>
+  <si>
+    <t>Servilletas para tu día especial</t>
+  </si>
+  <si>
+    <t>/media/product_images/invitaciones_papeleria/bodas/servilletas/servilletas.jpg</t>
+  </si>
+  <si>
+    <t>/media/product_images/invitaciones_papeleria/bodas/guarda_la_fecha/guarda_la_fecha.jpg</t>
   </si>
 </sst>
 </file>
@@ -4405,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B155" workbookViewId="0">
-      <selection activeCell="M187" sqref="M187"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9538,25 +9091,25 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B165" t="s">
-        <v>1056</v>
+        <v>1019</v>
       </c>
       <c r="C165" t="s">
         <v>344</v>
       </c>
       <c r="D165" t="s">
-        <v>345</v>
+        <v>1016</v>
       </c>
       <c r="E165" t="s">
-        <v>1096</v>
+        <v>1021</v>
       </c>
       <c r="F165" t="s">
-        <v>347</v>
+        <v>1023</v>
       </c>
       <c r="G165" t="s">
-        <v>1136</v>
+        <v>1026</v>
       </c>
       <c r="H165" t="s">
         <v>20</v>
@@ -9567,1132 +9120,30 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B166" t="s">
-        <v>1057</v>
+        <v>1020</v>
       </c>
       <c r="C166" t="s">
         <v>344</v>
       </c>
       <c r="D166" t="s">
-        <v>345</v>
+        <v>1016</v>
       </c>
       <c r="E166" t="s">
-        <v>1097</v>
+        <v>1022</v>
       </c>
       <c r="F166" t="s">
-        <v>347</v>
+        <v>1024</v>
       </c>
       <c r="G166" t="s">
-        <v>1137</v>
+        <v>1025</v>
       </c>
       <c r="H166" t="s">
         <v>20</v>
       </c>
       <c r="I166" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C167" t="s">
-        <v>344</v>
-      </c>
-      <c r="D167" t="s">
-        <v>345</v>
-      </c>
-      <c r="E167" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F167" t="s">
-        <v>347</v>
-      </c>
-      <c r="G167" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H167" t="s">
-        <v>20</v>
-      </c>
-      <c r="I167" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C168" t="s">
-        <v>344</v>
-      </c>
-      <c r="D168" t="s">
-        <v>345</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F168" t="s">
-        <v>347</v>
-      </c>
-      <c r="G168" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H168" t="s">
-        <v>20</v>
-      </c>
-      <c r="I168" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C169" t="s">
-        <v>344</v>
-      </c>
-      <c r="D169" t="s">
-        <v>345</v>
-      </c>
-      <c r="E169" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F169" t="s">
-        <v>347</v>
-      </c>
-      <c r="G169" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H169" t="s">
-        <v>20</v>
-      </c>
-      <c r="I169" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C170" t="s">
-        <v>344</v>
-      </c>
-      <c r="D170" t="s">
-        <v>345</v>
-      </c>
-      <c r="E170" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F170" t="s">
-        <v>347</v>
-      </c>
-      <c r="G170" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H170" t="s">
-        <v>20</v>
-      </c>
-      <c r="I170" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C171" t="s">
-        <v>344</v>
-      </c>
-      <c r="D171" t="s">
-        <v>345</v>
-      </c>
-      <c r="E171" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F171" t="s">
-        <v>347</v>
-      </c>
-      <c r="G171" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H171" t="s">
-        <v>20</v>
-      </c>
-      <c r="I171" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C172" t="s">
-        <v>344</v>
-      </c>
-      <c r="D172" t="s">
-        <v>345</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F172" t="s">
-        <v>347</v>
-      </c>
-      <c r="G172" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H172" t="s">
-        <v>20</v>
-      </c>
-      <c r="I172" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C173" t="s">
-        <v>344</v>
-      </c>
-      <c r="D173" t="s">
-        <v>345</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F173" t="s">
-        <v>347</v>
-      </c>
-      <c r="G173" t="s">
-        <v>1144</v>
-      </c>
-      <c r="H173" t="s">
-        <v>20</v>
-      </c>
-      <c r="I173" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C174" t="s">
-        <v>344</v>
-      </c>
-      <c r="D174" t="s">
-        <v>345</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F174" t="s">
-        <v>347</v>
-      </c>
-      <c r="G174" t="s">
-        <v>1145</v>
-      </c>
-      <c r="H174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I174" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C175" t="s">
-        <v>344</v>
-      </c>
-      <c r="D175" t="s">
-        <v>345</v>
-      </c>
-      <c r="E175" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F175" t="s">
-        <v>347</v>
-      </c>
-      <c r="G175" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H175" t="s">
-        <v>20</v>
-      </c>
-      <c r="I175" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C176" t="s">
-        <v>344</v>
-      </c>
-      <c r="D176" t="s">
-        <v>345</v>
-      </c>
-      <c r="E176" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F176" t="s">
-        <v>347</v>
-      </c>
-      <c r="G176" t="s">
-        <v>1147</v>
-      </c>
-      <c r="H176" t="s">
-        <v>20</v>
-      </c>
-      <c r="I176" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C177" t="s">
-        <v>344</v>
-      </c>
-      <c r="D177" t="s">
-        <v>345</v>
-      </c>
-      <c r="E177" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F177" t="s">
-        <v>347</v>
-      </c>
-      <c r="G177" t="s">
-        <v>1148</v>
-      </c>
-      <c r="H177" t="s">
-        <v>20</v>
-      </c>
-      <c r="I177" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C178" t="s">
-        <v>344</v>
-      </c>
-      <c r="D178" t="s">
-        <v>345</v>
-      </c>
-      <c r="E178" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F178" t="s">
-        <v>347</v>
-      </c>
-      <c r="G178" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H178" t="s">
-        <v>20</v>
-      </c>
-      <c r="I178" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C179" t="s">
-        <v>344</v>
-      </c>
-      <c r="D179" t="s">
-        <v>345</v>
-      </c>
-      <c r="E179" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F179" t="s">
-        <v>347</v>
-      </c>
-      <c r="G179" t="s">
-        <v>1150</v>
-      </c>
-      <c r="H179" t="s">
-        <v>20</v>
-      </c>
-      <c r="I179" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C180" t="s">
-        <v>344</v>
-      </c>
-      <c r="D180" t="s">
-        <v>345</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F180" t="s">
-        <v>347</v>
-      </c>
-      <c r="G180" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H180" t="s">
-        <v>20</v>
-      </c>
-      <c r="I180" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C181" t="s">
-        <v>344</v>
-      </c>
-      <c r="D181" t="s">
-        <v>345</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F181" t="s">
-        <v>347</v>
-      </c>
-      <c r="G181" t="s">
-        <v>1152</v>
-      </c>
-      <c r="H181" t="s">
-        <v>20</v>
-      </c>
-      <c r="I181" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C182" t="s">
-        <v>344</v>
-      </c>
-      <c r="D182" t="s">
-        <v>345</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F182" t="s">
-        <v>347</v>
-      </c>
-      <c r="G182" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H182" t="s">
-        <v>20</v>
-      </c>
-      <c r="I182" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C183" t="s">
-        <v>344</v>
-      </c>
-      <c r="D183" t="s">
-        <v>345</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F183" t="s">
-        <v>347</v>
-      </c>
-      <c r="G183" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H183" t="s">
-        <v>20</v>
-      </c>
-      <c r="I183" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C184" t="s">
-        <v>344</v>
-      </c>
-      <c r="D184" t="s">
-        <v>345</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F184" t="s">
-        <v>347</v>
-      </c>
-      <c r="G184" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H184" t="s">
-        <v>20</v>
-      </c>
-      <c r="I184" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C185" t="s">
-        <v>344</v>
-      </c>
-      <c r="D185" t="s">
-        <v>345</v>
-      </c>
-      <c r="E185" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F185" t="s">
-        <v>347</v>
-      </c>
-      <c r="G185" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H185" t="s">
-        <v>20</v>
-      </c>
-      <c r="I185" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C186" t="s">
-        <v>344</v>
-      </c>
-      <c r="D186" t="s">
-        <v>345</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F186" t="s">
-        <v>347</v>
-      </c>
-      <c r="G186" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H186" t="s">
-        <v>20</v>
-      </c>
-      <c r="I186" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C187" t="s">
-        <v>344</v>
-      </c>
-      <c r="D187" t="s">
-        <v>345</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F187" t="s">
-        <v>347</v>
-      </c>
-      <c r="G187" t="s">
-        <v>1158</v>
-      </c>
-      <c r="H187" t="s">
-        <v>20</v>
-      </c>
-      <c r="I187" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C188" t="s">
-        <v>344</v>
-      </c>
-      <c r="D188" t="s">
-        <v>345</v>
-      </c>
-      <c r="E188" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F188" t="s">
-        <v>347</v>
-      </c>
-      <c r="G188" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H188" t="s">
-        <v>20</v>
-      </c>
-      <c r="I188" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C189" t="s">
-        <v>344</v>
-      </c>
-      <c r="D189" t="s">
-        <v>345</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F189" t="s">
-        <v>347</v>
-      </c>
-      <c r="G189" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H189" t="s">
-        <v>20</v>
-      </c>
-      <c r="I189" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C190" t="s">
-        <v>344</v>
-      </c>
-      <c r="D190" t="s">
-        <v>345</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F190" t="s">
-        <v>347</v>
-      </c>
-      <c r="G190" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H190" t="s">
-        <v>20</v>
-      </c>
-      <c r="I190" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C191" t="s">
-        <v>344</v>
-      </c>
-      <c r="D191" t="s">
-        <v>345</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F191" t="s">
-        <v>347</v>
-      </c>
-      <c r="G191" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H191" t="s">
-        <v>20</v>
-      </c>
-      <c r="I191" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C192" t="s">
-        <v>344</v>
-      </c>
-      <c r="D192" t="s">
-        <v>345</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F192" t="s">
-        <v>347</v>
-      </c>
-      <c r="G192" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H192" t="s">
-        <v>20</v>
-      </c>
-      <c r="I192" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C193" t="s">
-        <v>344</v>
-      </c>
-      <c r="D193" t="s">
-        <v>345</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F193" t="s">
-        <v>347</v>
-      </c>
-      <c r="G193" t="s">
-        <v>1164</v>
-      </c>
-      <c r="H193" t="s">
-        <v>20</v>
-      </c>
-      <c r="I193" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C194" t="s">
-        <v>344</v>
-      </c>
-      <c r="D194" t="s">
-        <v>345</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F194" t="s">
-        <v>347</v>
-      </c>
-      <c r="G194" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H194" t="s">
-        <v>20</v>
-      </c>
-      <c r="I194" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C195" t="s">
-        <v>344</v>
-      </c>
-      <c r="D195" t="s">
-        <v>345</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F195" t="s">
-        <v>347</v>
-      </c>
-      <c r="G195" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H195" t="s">
-        <v>20</v>
-      </c>
-      <c r="I195" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C196" t="s">
-        <v>344</v>
-      </c>
-      <c r="D196" t="s">
-        <v>345</v>
-      </c>
-      <c r="E196" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F196" t="s">
-        <v>347</v>
-      </c>
-      <c r="G196" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H196" t="s">
-        <v>20</v>
-      </c>
-      <c r="I196" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C197" t="s">
-        <v>344</v>
-      </c>
-      <c r="D197" t="s">
-        <v>345</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F197" t="s">
-        <v>347</v>
-      </c>
-      <c r="G197" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H197" t="s">
-        <v>20</v>
-      </c>
-      <c r="I197" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C198" t="s">
-        <v>344</v>
-      </c>
-      <c r="D198" t="s">
-        <v>345</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F198" t="s">
-        <v>347</v>
-      </c>
-      <c r="G198" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H198" t="s">
-        <v>20</v>
-      </c>
-      <c r="I198" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C199" t="s">
-        <v>344</v>
-      </c>
-      <c r="D199" t="s">
-        <v>345</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F199" t="s">
-        <v>347</v>
-      </c>
-      <c r="G199" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H199" t="s">
-        <v>20</v>
-      </c>
-      <c r="I199" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C200" t="s">
-        <v>344</v>
-      </c>
-      <c r="D200" t="s">
-        <v>345</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F200" t="s">
-        <v>347</v>
-      </c>
-      <c r="G200" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H200" t="s">
-        <v>20</v>
-      </c>
-      <c r="I200" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C201" t="s">
-        <v>344</v>
-      </c>
-      <c r="D201" t="s">
-        <v>345</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F201" t="s">
-        <v>347</v>
-      </c>
-      <c r="G201" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H201" t="s">
-        <v>20</v>
-      </c>
-      <c r="I201" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C202" t="s">
-        <v>344</v>
-      </c>
-      <c r="D202" t="s">
-        <v>345</v>
-      </c>
-      <c r="E202" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F202" t="s">
-        <v>347</v>
-      </c>
-      <c r="G202" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H202" t="s">
-        <v>20</v>
-      </c>
-      <c r="I202" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C203" t="s">
-        <v>344</v>
-      </c>
-      <c r="D203" t="s">
-        <v>345</v>
-      </c>
-      <c r="E203" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F203" t="s">
-        <v>347</v>
-      </c>
-      <c r="G203" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H203" t="s">
-        <v>20</v>
-      </c>
-      <c r="I203" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C204" t="s">
-        <v>344</v>
-      </c>
-      <c r="D204" t="s">
-        <v>345</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F204" t="s">
-        <v>347</v>
-      </c>
-      <c r="G204" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H204" t="s">
-        <v>20</v>
-      </c>
-      <c r="I204" t="s">
         <v>666</v>
       </c>
     </row>

--- a/static/data/products_complete.xlsx
+++ b/static/data/products_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web_proyects\imprenta_gallito\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C08B1-94E3-43B5-B672-07BA94703CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0847DD4A-4ECA-4456-B812-71A7811C8DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1053">
   <si>
     <t>product_slug</t>
   </si>
@@ -3111,7 +3111,85 @@
     <t>/media/product_images/invitaciones_papeleria/bodas/servilletas/servilletas.jpg</t>
   </si>
   <si>
-    <t>/media/product_images/invitaciones_papeleria/bodas/guarda_la_fecha/guarda_la_fecha.jpg</t>
+    <t>carteles-carton-espuma</t>
+  </si>
+  <si>
+    <t>Carteles de cartón espuma</t>
+  </si>
+  <si>
+    <t>CCE-001</t>
+  </si>
+  <si>
+    <t>Carteles para tu día especial</t>
+  </si>
+  <si>
+    <t>Invitaciones para tu boda</t>
+  </si>
+  <si>
+    <t>IB-001</t>
+  </si>
+  <si>
+    <t>Invitaciones elegantes para tu boda</t>
+  </si>
+  <si>
+    <t>Invitaciones para tu despedida de soltera</t>
+  </si>
+  <si>
+    <t>IDS-001</t>
+  </si>
+  <si>
+    <t>invitaciones-despedida-de-soltera</t>
+  </si>
+  <si>
+    <t>programa-de-boda</t>
+  </si>
+  <si>
+    <t>Programa de boda</t>
+  </si>
+  <si>
+    <t>PDB-001</t>
+  </si>
+  <si>
+    <t>libro-de-firmas</t>
+  </si>
+  <si>
+    <t>Libro de firmas de invitados</t>
+  </si>
+  <si>
+    <t>LDF-001</t>
+  </si>
+  <si>
+    <t>tarjetas-de-menu</t>
+  </si>
+  <si>
+    <t>Tarjetas de menú</t>
+  </si>
+  <si>
+    <t>TM-001</t>
+  </si>
+  <si>
+    <t>Tarjetas para el menú de la boda</t>
+  </si>
+  <si>
+    <t>/media/product_images/invitaciones_papeleria/bodas/carteles_carton_espuma/carteles-carton-espuma.jpg</t>
+  </si>
+  <si>
+    <t>/media/product_images/invitaciones_papeleria/bodas/invitaciones_despedida_de_soltera/invitaciones-despedida-de-soltera.jpg</t>
+  </si>
+  <si>
+    <t>/media/product_images/invitaciones_papeleria/bodas/programa_de_boda/programa-de-boda.jpg</t>
+  </si>
+  <si>
+    <t>/media/product_images/invitaciones_papeleria/bodas/libro_de_firmas/libro-de-firmas.jpg</t>
+  </si>
+  <si>
+    <t>/media/product_images/invitaciones_papeleria/bodas/tarjetas_de_menu/tarjetas-de-menu.jpg</t>
+  </si>
+  <si>
+    <t>/media/product_images/invitaciones_papeleria/bodas/guarda_la_fecha/guarda-la-fecha.jpg</t>
+  </si>
+  <si>
+    <t>/media/product_images/invitaciones_papeleria/bodas/invitaciones_de_boda/invitaciones-de-boda.jpg</t>
   </si>
 </sst>
 </file>
@@ -3958,16 +4036,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" topLeftCell="B149" workbookViewId="0">
+      <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="83.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="130.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -9109,7 +9188,7 @@
         <v>1023</v>
       </c>
       <c r="G165" t="s">
-        <v>1026</v>
+        <v>1051</v>
       </c>
       <c r="H165" t="s">
         <v>20</v>
@@ -9144,6 +9223,180 @@
         <v>20</v>
       </c>
       <c r="I166" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C167" t="s">
+        <v>344</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H167" t="s">
+        <v>20</v>
+      </c>
+      <c r="I167" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>345</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C168" t="s">
+        <v>344</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C169" t="s">
+        <v>344</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H169" t="s">
+        <v>20</v>
+      </c>
+      <c r="I169" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C170" t="s">
+        <v>344</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C171" t="s">
+        <v>344</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C172" t="s">
+        <v>344</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H172" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" t="s">
         <v>666</v>
       </c>
     </row>

--- a/static/data/products_complete.xlsx
+++ b/static/data/products_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web_proyects\imprenta_gallito\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB0DF1D-5DC2-439A-92F2-3DFFA06E36C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1D71A7-B027-480F-A67E-DC2E7C694FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="110" windowWidth="34380" windowHeight="13570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$175</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="969">
   <si>
     <t>product_slug</t>
   </si>
@@ -2468,13 +2468,475 @@
   </si>
   <si>
     <t>invitaciones-despedida-soltera</t>
+  </si>
+  <si>
+    <t>banderas-gota-de-agua</t>
+  </si>
+  <si>
+    <t>Banderas Gota De Agua</t>
+  </si>
+  <si>
+    <t>letreros-banners</t>
+  </si>
+  <si>
+    <t>banderas</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banderas/banderas-gota-de-agua.jpg</t>
+  </si>
+  <si>
+    <t>banderas-marinero</t>
+  </si>
+  <si>
+    <t>Banderas Marinero</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banderas/banderas-marinero.jpg</t>
+  </si>
+  <si>
+    <t>banderas-pared</t>
+  </si>
+  <si>
+    <t>Banderas Pared</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banderas/banderas-pared.jpg</t>
+  </si>
+  <si>
+    <t>banderas-pluma</t>
+  </si>
+  <si>
+    <t>Banderas Pluma</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banderas/banderas-pluma.jpg</t>
+  </si>
+  <si>
+    <t>banderas-polyester</t>
+  </si>
+  <si>
+    <t>Banderas Polyester</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banderas/banderas-polyester.jpg</t>
+  </si>
+  <si>
+    <t>banderas-rectangular</t>
+  </si>
+  <si>
+    <t>Banderas Rectangular</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banderas/banderas-rectangular.jpg</t>
+  </si>
+  <si>
+    <t>banderines</t>
+  </si>
+  <si>
+    <t>Banderines</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banderas/banderines.jpg</t>
+  </si>
+  <si>
+    <t>banners-malla</t>
+  </si>
+  <si>
+    <t>Banners Malla</t>
+  </si>
+  <si>
+    <t>banners</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banners/banners-malla.jpg</t>
+  </si>
+  <si>
+    <t>banners-polyester</t>
+  </si>
+  <si>
+    <t>Banners Polyester</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banners/banners-polyester.jpg</t>
+  </si>
+  <si>
+    <t>banners-postes</t>
+  </si>
+  <si>
+    <t>Banners Postes</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banners/banners-postes.jpg</t>
+  </si>
+  <si>
+    <t>banners-repaso-repeticion</t>
+  </si>
+  <si>
+    <t>Banners Repaso Repeticion</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banners/banners-repaso-repeticion.jpg</t>
+  </si>
+  <si>
+    <t>banners-retractables</t>
+  </si>
+  <si>
+    <t>Banners Retractables</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banners/banners-retractables.jpg</t>
+  </si>
+  <si>
+    <t>banners-tensados</t>
+  </si>
+  <si>
+    <t>Banners Tensados</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banners/banners-tensados.jpg</t>
+  </si>
+  <si>
+    <t>banners-vinyl</t>
+  </si>
+  <si>
+    <t>Banners Vinyl</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banners/banners-vinyl.jpg</t>
+  </si>
+  <si>
+    <t>banners-x</t>
+  </si>
+  <si>
+    <t>Banners X</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/banners/banners-x.jpg</t>
+  </si>
+  <si>
+    <t>letreros-0001</t>
+  </si>
+  <si>
+    <t>Letreros 0001</t>
+  </si>
+  <si>
+    <t>letreros</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/letreros/letreros-0001.jpg</t>
+  </si>
+  <si>
+    <t>letreros-0002</t>
+  </si>
+  <si>
+    <t>Letreros 0002</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/letreros/letreros-0002.jpg</t>
+  </si>
+  <si>
+    <t>letreros-0003</t>
+  </si>
+  <si>
+    <t>Letreros 0003</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/letreros/letreros-0003.jpg</t>
+  </si>
+  <si>
+    <t>letreros-0004</t>
+  </si>
+  <si>
+    <t>Letreros 0004</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/letreros/letreros-0004.jpg</t>
+  </si>
+  <si>
+    <t>letreros-0005</t>
+  </si>
+  <si>
+    <t>Letreros 0005</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/letreros/letreros-0005.jpg</t>
+  </si>
+  <si>
+    <t>letreros-0006</t>
+  </si>
+  <si>
+    <t>Letreros 0006</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/letreros/letreros-0006.jpg</t>
+  </si>
+  <si>
+    <t>letreros-0007</t>
+  </si>
+  <si>
+    <t>Letreros 0007</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/letreros/letreros-0007.jpg</t>
+  </si>
+  <si>
+    <t>posters-0001</t>
+  </si>
+  <si>
+    <t>Posters 0001</t>
+  </si>
+  <si>
+    <t>posters</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/posters/posters-0001.jpg</t>
+  </si>
+  <si>
+    <t>posters-0002</t>
+  </si>
+  <si>
+    <t>Posters 0002</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/posters/posters-0002.jpg</t>
+  </si>
+  <si>
+    <t>posters-0004</t>
+  </si>
+  <si>
+    <t>Posters 0004</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/posters/posters-0004.jpg</t>
+  </si>
+  <si>
+    <t>posters-0005</t>
+  </si>
+  <si>
+    <t>Posters 0005</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/posters/posters-0005.jpg</t>
+  </si>
+  <si>
+    <t>posters-0006</t>
+  </si>
+  <si>
+    <t>Posters 0006</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/posters/posters-0006.jpg</t>
+  </si>
+  <si>
+    <t>posters-0007</t>
+  </si>
+  <si>
+    <t>Posters 0007</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/posters/posters-0007.jpg</t>
+  </si>
+  <si>
+    <t>posters-0008</t>
+  </si>
+  <si>
+    <t>Posters 0008</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/posters/posters-0008.jpg</t>
+  </si>
+  <si>
+    <t>posters-0009</t>
+  </si>
+  <si>
+    <t>Posters 0009</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/posters/posters-0009.jpg</t>
+  </si>
+  <si>
+    <t>posters-exteriores</t>
+  </si>
+  <si>
+    <t>Posters Exteriores</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/posters/posters-exteriores.jpg</t>
+  </si>
+  <si>
+    <t>publicidad-autos-0001</t>
+  </si>
+  <si>
+    <t>Publicidad Autos 0001</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/publicidad_autos/publicidad-autos-0001.jpg</t>
+  </si>
+  <si>
+    <t>publicidad-autos-0002</t>
+  </si>
+  <si>
+    <t>Publicidad Autos 0002</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/publicidad_autos/publicidad-autos-0002.jpg</t>
+  </si>
+  <si>
+    <t>publicidad-autos-0003</t>
+  </si>
+  <si>
+    <t>Publicidad Autos 0003</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/publicidad_autos/publicidad-autos-0003.jpg</t>
+  </si>
+  <si>
+    <t>publicidad-autos-0004</t>
+  </si>
+  <si>
+    <t>Publicidad Autos 0004</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/publicidad_autos/publicidad-autos-0004.jpg</t>
+  </si>
+  <si>
+    <t>publicidad-autos-0005</t>
+  </si>
+  <si>
+    <t>Publicidad Autos 0005</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/publicidad_autos/publicidad-autos-0005.jpg</t>
+  </si>
+  <si>
+    <t>publicidad-autos-0006</t>
+  </si>
+  <si>
+    <t>Publicidad Autos 0006</t>
+  </si>
+  <si>
+    <t>/media/product_images/letreros_banners/publicidad_autos/publicidad-autos-0006.jpg</t>
+  </si>
+  <si>
+    <t>BAN-001</t>
+  </si>
+  <si>
+    <t>BAN-002</t>
+  </si>
+  <si>
+    <t>BAN-003</t>
+  </si>
+  <si>
+    <t>BAN-004</t>
+  </si>
+  <si>
+    <t>BAN-005</t>
+  </si>
+  <si>
+    <t>BAN-006</t>
+  </si>
+  <si>
+    <t>BAN-007</t>
+  </si>
+  <si>
+    <t>BAN-008</t>
+  </si>
+  <si>
+    <t>BAN-009</t>
+  </si>
+  <si>
+    <t>BAN-010</t>
+  </si>
+  <si>
+    <t>BAN-011</t>
+  </si>
+  <si>
+    <t>BAN-012</t>
+  </si>
+  <si>
+    <t>BAN-013</t>
+  </si>
+  <si>
+    <t>BAN-014</t>
+  </si>
+  <si>
+    <t>BAN-015</t>
+  </si>
+  <si>
+    <t>LE-001</t>
+  </si>
+  <si>
+    <t>LE-002</t>
+  </si>
+  <si>
+    <t>LE-003</t>
+  </si>
+  <si>
+    <t>LE-004</t>
+  </si>
+  <si>
+    <t>LE-005</t>
+  </si>
+  <si>
+    <t>LE-006</t>
+  </si>
+  <si>
+    <t>LE-007</t>
+  </si>
+  <si>
+    <t>LE-008</t>
+  </si>
+  <si>
+    <t>LE-009</t>
+  </si>
+  <si>
+    <t>LE-010</t>
+  </si>
+  <si>
+    <t>LE-011</t>
+  </si>
+  <si>
+    <t>LE-012</t>
+  </si>
+  <si>
+    <t>LE-013</t>
+  </si>
+  <si>
+    <t>LE-014</t>
+  </si>
+  <si>
+    <t>LE-015</t>
+  </si>
+  <si>
+    <t>LE-016</t>
+  </si>
+  <si>
+    <t>PA-001</t>
+  </si>
+  <si>
+    <t>PA-002</t>
+  </si>
+  <si>
+    <t>PA-003</t>
+  </si>
+  <si>
+    <t>PA-004</t>
+  </si>
+  <si>
+    <t>PA-005</t>
+  </si>
+  <si>
+    <t>PA-006</t>
+  </si>
+  <si>
+    <t>publicidad-autos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2486,6 +2948,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2869,15 +3337,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O138"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.54296875" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.6328125" customWidth="1"/>
     <col min="7" max="7" width="130.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2929,7 +3402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2955,7 +3428,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2981,7 +3454,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3007,7 +3480,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3033,7 +3506,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3059,7 +3532,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3085,7 +3558,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3111,7 +3584,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3137,7 +3610,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3163,7 +3636,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3189,7 +3662,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3215,7 +3688,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3241,7 +3714,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3267,7 +3740,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3293,7 +3766,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3319,7 +3792,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3345,7 +3818,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3371,7 +3844,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3397,7 +3870,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3423,7 +3896,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -3449,7 +3922,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3475,7 +3948,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3501,7 +3974,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3545,7 +4018,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3589,7 +4062,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3633,7 +4106,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3677,7 +4150,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3721,7 +4194,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -3765,7 +4238,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -3809,7 +4282,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -3853,7 +4326,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3897,7 +4370,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -3941,7 +4414,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -3985,7 +4458,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -4029,7 +4502,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -4073,7 +4546,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -4117,7 +4590,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -4161,7 +4634,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -4205,7 +4678,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -4249,7 +4722,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -4293,7 +4766,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -4337,7 +4810,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4381,7 +4854,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4425,7 +4898,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4469,7 +4942,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -4513,7 +4986,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -4557,7 +5030,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -4601,7 +5074,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -4645,7 +5118,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -4689,7 +5162,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -4730,7 +5203,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -4774,7 +5247,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -4818,7 +5291,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -4862,7 +5335,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -4906,7 +5379,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -4950,7 +5423,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -4994,7 +5467,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -5038,7 +5511,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -5082,7 +5555,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -5126,7 +5599,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -5170,7 +5643,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -5211,7 +5684,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -5255,7 +5728,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -5299,7 +5772,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -5343,7 +5816,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -5387,7 +5860,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -5431,7 +5904,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -5475,7 +5948,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -5519,7 +5992,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -5563,7 +6036,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -5607,7 +6080,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -5636,7 +6109,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -5665,7 +6138,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -5694,7 +6167,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -5723,7 +6196,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>814</v>
       </c>
@@ -5752,7 +6225,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -5781,7 +6254,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -5810,7 +6283,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -5839,7 +6312,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -5868,7 +6341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -5897,7 +6370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -5926,7 +6399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -5955,7 +6428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -5984,7 +6457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -6013,7 +6486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -6042,7 +6515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -6071,7 +6544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -6100,7 +6573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -6129,7 +6602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -6158,7 +6631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -6187,7 +6660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -6216,7 +6689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -6245,7 +6718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -6271,7 +6744,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -6297,7 +6770,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -6323,7 +6796,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -6346,7 +6819,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -6375,7 +6848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -6404,7 +6877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -6433,7 +6906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -6462,7 +6935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -6491,7 +6964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -6520,7 +6993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -6549,7 +7022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -6578,7 +7051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>651</v>
       </c>
@@ -6607,7 +7080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>653</v>
       </c>
@@ -6633,7 +7106,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>658</v>
       </c>
@@ -6659,7 +7132,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>664</v>
       </c>
@@ -6685,7 +7158,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>669</v>
       </c>
@@ -6711,7 +7184,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>674</v>
       </c>
@@ -6737,7 +7210,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>679</v>
       </c>
@@ -6763,7 +7236,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>684</v>
       </c>
@@ -6789,7 +7262,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>689</v>
       </c>
@@ -6815,7 +7288,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>694</v>
       </c>
@@ -6841,7 +7314,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>699</v>
       </c>
@@ -6867,7 +7340,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>704</v>
       </c>
@@ -6893,7 +7366,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>709</v>
       </c>
@@ -6919,7 +7392,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>714</v>
       </c>
@@ -6945,7 +7418,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>719</v>
       </c>
@@ -6971,7 +7444,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>724</v>
       </c>
@@ -6997,7 +7470,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>729</v>
       </c>
@@ -7023,7 +7496,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>734</v>
       </c>
@@ -7049,7 +7522,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>739</v>
       </c>
@@ -7075,7 +7548,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>744</v>
       </c>
@@ -7101,7 +7574,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>749</v>
       </c>
@@ -7127,7 +7600,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>754</v>
       </c>
@@ -7153,7 +7626,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>759</v>
       </c>
@@ -7179,7 +7652,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>764</v>
       </c>
@@ -7205,7 +7678,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>769</v>
       </c>
@@ -7231,7 +7704,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>774</v>
       </c>
@@ -7257,7 +7730,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>779</v>
       </c>
@@ -7283,7 +7756,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>783</v>
       </c>
@@ -7309,7 +7782,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>787</v>
       </c>
@@ -7335,7 +7808,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>791</v>
       </c>
@@ -7361,7 +7834,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>795</v>
       </c>
@@ -7387,7 +7860,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>799</v>
       </c>
@@ -7413,7 +7886,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>807</v>
       </c>
@@ -7439,7 +7912,755 @@
         <v>531</v>
       </c>
     </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>815</v>
+      </c>
+      <c r="B139" t="s">
+        <v>816</v>
+      </c>
+      <c r="C139" t="s">
+        <v>817</v>
+      </c>
+      <c r="D139" t="s">
+        <v>818</v>
+      </c>
+      <c r="E139" t="s">
+        <v>931</v>
+      </c>
+      <c r="G139" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>820</v>
+      </c>
+      <c r="B140" t="s">
+        <v>821</v>
+      </c>
+      <c r="C140" t="s">
+        <v>817</v>
+      </c>
+      <c r="D140" t="s">
+        <v>818</v>
+      </c>
+      <c r="E140" t="s">
+        <v>932</v>
+      </c>
+      <c r="G140" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>823</v>
+      </c>
+      <c r="B141" t="s">
+        <v>824</v>
+      </c>
+      <c r="C141" t="s">
+        <v>817</v>
+      </c>
+      <c r="D141" t="s">
+        <v>818</v>
+      </c>
+      <c r="E141" t="s">
+        <v>933</v>
+      </c>
+      <c r="G141" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>826</v>
+      </c>
+      <c r="B142" t="s">
+        <v>827</v>
+      </c>
+      <c r="C142" t="s">
+        <v>817</v>
+      </c>
+      <c r="D142" t="s">
+        <v>818</v>
+      </c>
+      <c r="E142" t="s">
+        <v>934</v>
+      </c>
+      <c r="G142" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>829</v>
+      </c>
+      <c r="B143" t="s">
+        <v>830</v>
+      </c>
+      <c r="C143" t="s">
+        <v>817</v>
+      </c>
+      <c r="D143" t="s">
+        <v>818</v>
+      </c>
+      <c r="E143" t="s">
+        <v>935</v>
+      </c>
+      <c r="G143" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>832</v>
+      </c>
+      <c r="B144" t="s">
+        <v>833</v>
+      </c>
+      <c r="C144" t="s">
+        <v>817</v>
+      </c>
+      <c r="D144" t="s">
+        <v>818</v>
+      </c>
+      <c r="E144" t="s">
+        <v>936</v>
+      </c>
+      <c r="G144" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>835</v>
+      </c>
+      <c r="B145" t="s">
+        <v>836</v>
+      </c>
+      <c r="C145" t="s">
+        <v>817</v>
+      </c>
+      <c r="D145" t="s">
+        <v>818</v>
+      </c>
+      <c r="E145" t="s">
+        <v>937</v>
+      </c>
+      <c r="G145" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>838</v>
+      </c>
+      <c r="B146" t="s">
+        <v>839</v>
+      </c>
+      <c r="C146" t="s">
+        <v>817</v>
+      </c>
+      <c r="D146" t="s">
+        <v>840</v>
+      </c>
+      <c r="E146" t="s">
+        <v>938</v>
+      </c>
+      <c r="G146" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>842</v>
+      </c>
+      <c r="B147" t="s">
+        <v>843</v>
+      </c>
+      <c r="C147" t="s">
+        <v>817</v>
+      </c>
+      <c r="D147" t="s">
+        <v>840</v>
+      </c>
+      <c r="E147" t="s">
+        <v>939</v>
+      </c>
+      <c r="G147" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>845</v>
+      </c>
+      <c r="B148" t="s">
+        <v>846</v>
+      </c>
+      <c r="C148" t="s">
+        <v>817</v>
+      </c>
+      <c r="D148" t="s">
+        <v>840</v>
+      </c>
+      <c r="E148" t="s">
+        <v>940</v>
+      </c>
+      <c r="G148" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>848</v>
+      </c>
+      <c r="B149" t="s">
+        <v>849</v>
+      </c>
+      <c r="C149" t="s">
+        <v>817</v>
+      </c>
+      <c r="D149" t="s">
+        <v>840</v>
+      </c>
+      <c r="E149" t="s">
+        <v>941</v>
+      </c>
+      <c r="G149" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>851</v>
+      </c>
+      <c r="B150" t="s">
+        <v>852</v>
+      </c>
+      <c r="C150" t="s">
+        <v>817</v>
+      </c>
+      <c r="D150" t="s">
+        <v>840</v>
+      </c>
+      <c r="E150" t="s">
+        <v>942</v>
+      </c>
+      <c r="G150" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>854</v>
+      </c>
+      <c r="B151" t="s">
+        <v>855</v>
+      </c>
+      <c r="C151" t="s">
+        <v>817</v>
+      </c>
+      <c r="D151" t="s">
+        <v>840</v>
+      </c>
+      <c r="E151" t="s">
+        <v>943</v>
+      </c>
+      <c r="G151" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>857</v>
+      </c>
+      <c r="B152" t="s">
+        <v>858</v>
+      </c>
+      <c r="C152" t="s">
+        <v>817</v>
+      </c>
+      <c r="D152" t="s">
+        <v>840</v>
+      </c>
+      <c r="E152" t="s">
+        <v>944</v>
+      </c>
+      <c r="G152" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>860</v>
+      </c>
+      <c r="B153" t="s">
+        <v>861</v>
+      </c>
+      <c r="C153" t="s">
+        <v>817</v>
+      </c>
+      <c r="D153" t="s">
+        <v>840</v>
+      </c>
+      <c r="E153" t="s">
+        <v>945</v>
+      </c>
+      <c r="G153" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>863</v>
+      </c>
+      <c r="B154" t="s">
+        <v>864</v>
+      </c>
+      <c r="C154" t="s">
+        <v>817</v>
+      </c>
+      <c r="D154" t="s">
+        <v>865</v>
+      </c>
+      <c r="E154" t="s">
+        <v>946</v>
+      </c>
+      <c r="G154" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>867</v>
+      </c>
+      <c r="B155" t="s">
+        <v>868</v>
+      </c>
+      <c r="C155" t="s">
+        <v>817</v>
+      </c>
+      <c r="D155" t="s">
+        <v>865</v>
+      </c>
+      <c r="E155" t="s">
+        <v>947</v>
+      </c>
+      <c r="G155" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>870</v>
+      </c>
+      <c r="B156" t="s">
+        <v>871</v>
+      </c>
+      <c r="C156" t="s">
+        <v>817</v>
+      </c>
+      <c r="D156" t="s">
+        <v>865</v>
+      </c>
+      <c r="E156" t="s">
+        <v>948</v>
+      </c>
+      <c r="G156" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>873</v>
+      </c>
+      <c r="B157" t="s">
+        <v>874</v>
+      </c>
+      <c r="C157" t="s">
+        <v>817</v>
+      </c>
+      <c r="D157" t="s">
+        <v>865</v>
+      </c>
+      <c r="E157" t="s">
+        <v>949</v>
+      </c>
+      <c r="G157" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>876</v>
+      </c>
+      <c r="B158" t="s">
+        <v>877</v>
+      </c>
+      <c r="C158" t="s">
+        <v>817</v>
+      </c>
+      <c r="D158" t="s">
+        <v>865</v>
+      </c>
+      <c r="E158" t="s">
+        <v>950</v>
+      </c>
+      <c r="G158" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>879</v>
+      </c>
+      <c r="B159" t="s">
+        <v>880</v>
+      </c>
+      <c r="C159" t="s">
+        <v>817</v>
+      </c>
+      <c r="D159" t="s">
+        <v>865</v>
+      </c>
+      <c r="E159" t="s">
+        <v>951</v>
+      </c>
+      <c r="G159" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>882</v>
+      </c>
+      <c r="B160" t="s">
+        <v>883</v>
+      </c>
+      <c r="C160" t="s">
+        <v>817</v>
+      </c>
+      <c r="D160" t="s">
+        <v>865</v>
+      </c>
+      <c r="E160" t="s">
+        <v>952</v>
+      </c>
+      <c r="G160" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>885</v>
+      </c>
+      <c r="B161" t="s">
+        <v>886</v>
+      </c>
+      <c r="C161" t="s">
+        <v>817</v>
+      </c>
+      <c r="D161" t="s">
+        <v>887</v>
+      </c>
+      <c r="E161" t="s">
+        <v>953</v>
+      </c>
+      <c r="G161" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>889</v>
+      </c>
+      <c r="B162" t="s">
+        <v>890</v>
+      </c>
+      <c r="C162" t="s">
+        <v>817</v>
+      </c>
+      <c r="D162" t="s">
+        <v>887</v>
+      </c>
+      <c r="E162" t="s">
+        <v>954</v>
+      </c>
+      <c r="G162" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>892</v>
+      </c>
+      <c r="B163" t="s">
+        <v>893</v>
+      </c>
+      <c r="C163" t="s">
+        <v>817</v>
+      </c>
+      <c r="D163" t="s">
+        <v>887</v>
+      </c>
+      <c r="E163" t="s">
+        <v>955</v>
+      </c>
+      <c r="G163" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>895</v>
+      </c>
+      <c r="B164" t="s">
+        <v>896</v>
+      </c>
+      <c r="C164" t="s">
+        <v>817</v>
+      </c>
+      <c r="D164" t="s">
+        <v>887</v>
+      </c>
+      <c r="E164" t="s">
+        <v>956</v>
+      </c>
+      <c r="G164" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>898</v>
+      </c>
+      <c r="B165" t="s">
+        <v>899</v>
+      </c>
+      <c r="C165" t="s">
+        <v>817</v>
+      </c>
+      <c r="D165" t="s">
+        <v>887</v>
+      </c>
+      <c r="E165" t="s">
+        <v>957</v>
+      </c>
+      <c r="G165" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>901</v>
+      </c>
+      <c r="B166" t="s">
+        <v>902</v>
+      </c>
+      <c r="C166" t="s">
+        <v>817</v>
+      </c>
+      <c r="D166" t="s">
+        <v>887</v>
+      </c>
+      <c r="E166" t="s">
+        <v>958</v>
+      </c>
+      <c r="G166" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>904</v>
+      </c>
+      <c r="B167" t="s">
+        <v>905</v>
+      </c>
+      <c r="C167" t="s">
+        <v>817</v>
+      </c>
+      <c r="D167" t="s">
+        <v>887</v>
+      </c>
+      <c r="E167" t="s">
+        <v>959</v>
+      </c>
+      <c r="G167" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>907</v>
+      </c>
+      <c r="B168" t="s">
+        <v>908</v>
+      </c>
+      <c r="C168" t="s">
+        <v>817</v>
+      </c>
+      <c r="D168" t="s">
+        <v>887</v>
+      </c>
+      <c r="E168" t="s">
+        <v>960</v>
+      </c>
+      <c r="G168" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>910</v>
+      </c>
+      <c r="B169" t="s">
+        <v>911</v>
+      </c>
+      <c r="C169" t="s">
+        <v>817</v>
+      </c>
+      <c r="D169" t="s">
+        <v>887</v>
+      </c>
+      <c r="E169" t="s">
+        <v>961</v>
+      </c>
+      <c r="G169" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>913</v>
+      </c>
+      <c r="B170" t="s">
+        <v>914</v>
+      </c>
+      <c r="C170" t="s">
+        <v>817</v>
+      </c>
+      <c r="D170" t="s">
+        <v>968</v>
+      </c>
+      <c r="E170" t="s">
+        <v>962</v>
+      </c>
+      <c r="G170" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>916</v>
+      </c>
+      <c r="B171" t="s">
+        <v>917</v>
+      </c>
+      <c r="C171" t="s">
+        <v>817</v>
+      </c>
+      <c r="D171" t="s">
+        <v>968</v>
+      </c>
+      <c r="E171" t="s">
+        <v>963</v>
+      </c>
+      <c r="G171" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>919</v>
+      </c>
+      <c r="B172" t="s">
+        <v>920</v>
+      </c>
+      <c r="C172" t="s">
+        <v>817</v>
+      </c>
+      <c r="D172" t="s">
+        <v>968</v>
+      </c>
+      <c r="E172" t="s">
+        <v>964</v>
+      </c>
+      <c r="G172" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>922</v>
+      </c>
+      <c r="B173" t="s">
+        <v>923</v>
+      </c>
+      <c r="C173" t="s">
+        <v>817</v>
+      </c>
+      <c r="D173" t="s">
+        <v>968</v>
+      </c>
+      <c r="E173" t="s">
+        <v>965</v>
+      </c>
+      <c r="G173" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>925</v>
+      </c>
+      <c r="B174" t="s">
+        <v>926</v>
+      </c>
+      <c r="C174" t="s">
+        <v>817</v>
+      </c>
+      <c r="D174" t="s">
+        <v>968</v>
+      </c>
+      <c r="E174" t="s">
+        <v>966</v>
+      </c>
+      <c r="G174" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>928</v>
+      </c>
+      <c r="B175" t="s">
+        <v>929</v>
+      </c>
+      <c r="C175" t="s">
+        <v>817</v>
+      </c>
+      <c r="D175" t="s">
+        <v>968</v>
+      </c>
+      <c r="E175" t="s">
+        <v>967</v>
+      </c>
+      <c r="G175" t="s">
+        <v>930</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:O175" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="letreros-banners"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
